--- a/biology/Botanique/Trigonia_villosa/Trigonia_villosa.xlsx
+++ b/biology/Botanique/Trigonia_villosa/Trigonia_villosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trigonia villosa est une espèce de plantes à fleurs de la famille des Trigoniaceae. C'est une liane ligneuse trouvée en Guyane.
-Trigonia villosa Aubl. est l'espèce type du genre Trigonia Aubl.[1].
+Trigonia villosa Aubl. est l'espèce type du genre Trigonia Aubl..
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « 1. TRIGONIA (villoſa) foliis ovatis integerrimis, fructu longo rufeſcente. {Tabula 149.)
 Frutex, caules plures e radice emittens ſarmentofos, ramoſos, nodoſos, tomentoſos, ferrugineos, volubiles, ſuprà arbores vicinas expanſos. Folia oppoſita, ovata, acuta, integerrima, ſupernè viridia, infernè ſubvilloſa, cinerea, nervis ferrugineis notata, petiolata, ad baſim stipule binæ, breves, latiuſculæ, acutæ, decidual. Flores paniculati, terminates, ramulis oppoſitis; floribus ſpicatis, ſubverticillatis, ſingulis ad baſim ſquamula munitis.
 Floret fructumque ſert variis anni temporibus.
